--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>HINDUSTAN TOYS</t>
-  </si>
-  <si>
-    <t>TRANSFER</t>
   </si>
   <si>
     <t>CUSTOMER NAME - N.K TOYS</t>
@@ -1076,8 +1073,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1150,9 +1147,7 @@
         <v>24965</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
@@ -1161,7 +1156,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1172,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1188,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1204,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1220,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1236,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1252,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1268,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1284,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1300,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1316,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1332,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1348,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1364,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1380,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1396,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1412,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1428,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1444,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1460,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1476,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1492,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1508,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1524,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1540,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1556,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1572,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1588,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1604,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1621,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,20 +1143,18 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>24965</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1168,11 +1166,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1184,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1200,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1216,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1232,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1248,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1264,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1280,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1296,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1312,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1328,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1344,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1617,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1642,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1673,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>24965</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,19 +1142,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44593</v>
+      </c>
+      <c r="B5" s="8">
+        <v>16023</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44588</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1166,11 +1170,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1186,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1218,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1234,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1250,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44588</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1644,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1675,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>16023</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1158,7 +1158,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,7 +1446,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,23 +1142,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44593</v>
-      </c>
-      <c r="B5" s="8">
-        <v>16023</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>41</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1166,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1186,7 +1182,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1202,7 +1198,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1218,7 +1214,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1234,7 +1230,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1250,7 +1246,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1266,7 +1262,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1282,7 +1278,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1298,7 +1294,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1314,7 +1310,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1330,7 +1326,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1346,7 +1342,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1362,7 +1358,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1378,7 +1374,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1394,7 +1390,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1410,7 +1406,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1426,7 +1422,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1442,7 +1438,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1458,7 +1454,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1474,7 +1470,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1490,7 +1486,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1506,7 +1502,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1522,7 +1518,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1538,7 +1534,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1554,7 +1550,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1570,7 +1566,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1586,7 +1582,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1602,7 +1598,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1619,7 +1615,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1644,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1675,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>16023</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,51 +1142,63 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44712</v>
+      </c>
+      <c r="B5" s="8">
+        <v>14055</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>14055</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44713</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44709</v>
+      </c>
+      <c r="B6" s="8">
+        <v>31331</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>45386</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44713</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44714</v>
+      </c>
+      <c r="B7" s="16">
+        <v>14073</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1290,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1306,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1652,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>59459</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,19 +1146,23 @@
         <v>44712</v>
       </c>
       <c r="B5" s="8">
-        <v>14055</v>
+        <v>14022</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44768</v>
+      </c>
+      <c r="G5" s="8">
+        <v>33385</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>14055</v>
+        <v>-19363</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>35</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,11 +1178,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>45386</v>
+        <v>11968</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1190,7 @@
         <v>44714</v>
       </c>
       <c r="B7" s="16">
-        <v>14073</v>
+        <v>14043</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
@@ -1194,59 +1198,71 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>59459</v>
+        <v>26011</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44744</v>
+      </c>
+      <c r="B8" s="16">
+        <v>13999</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>59459</v>
+        <v>40010</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="52">
+        <v>44743</v>
+      </c>
+      <c r="B9" s="13">
+        <v>13147</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>59459</v>
+        <v>53157</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="52">
+        <v>44772</v>
+      </c>
+      <c r="B10" s="13">
+        <v>26731</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1274,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1290,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1306,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1322,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1338,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1354,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1370,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1386,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1402,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1418,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1434,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1450,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1466,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1482,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1498,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1514,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1530,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1546,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1562,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1578,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1594,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1610,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1626,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1643,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1668,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>59459</v>
+        <v>113273</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1660,7 +1676,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>33385</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1699,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>59459</v>
+        <v>79888</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,7 +1518,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-19363</v>
+        <v>-49363</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,15 +1174,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44810</v>
+      </c>
+      <c r="G6" s="8">
+        <v>30000</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>11968</v>
+        <v>-18032</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,11 +1202,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>26011</v>
+        <v>-3989</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,11 +1222,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>40010</v>
+        <v>10010</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1242,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>53157</v>
+        <v>23157</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1262,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1278,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1290,11 +1294,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1306,11 +1310,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1326,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1342,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1358,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1374,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1390,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1406,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1422,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1438,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1454,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1470,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1486,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1502,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1518,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1534,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1550,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1566,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1582,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1598,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1614,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1630,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1643,11 +1647,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1676,7 +1680,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>33385</v>
+        <v>63385</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1699,7 +1703,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>79888</v>
+        <v>49888</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-49363</v>
+        <v>-85596</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-18032</v>
+        <v>-54265</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1198,15 +1198,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44863</v>
+      </c>
+      <c r="G7" s="16">
+        <v>36233</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-3989</v>
+        <v>-40222</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1226,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>10010</v>
+        <v>-26223</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1246,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>23157</v>
+        <v>-13076</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1266,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1278,11 +1282,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1298,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1310,11 +1314,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1330,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1346,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1362,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1378,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1394,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1410,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1426,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1442,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1458,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1474,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1490,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1506,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1522,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1538,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1554,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1570,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1586,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1602,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1614,11 +1618,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1634,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1647,11 +1651,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44863</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1680,7 +1684,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>63385</v>
+        <v>99618</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1703,7 +1707,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>49888</v>
+        <v>13655</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A5" sqref="A5:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,135 +1142,99 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44712</v>
-      </c>
-      <c r="B5" s="8">
-        <v>14022</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44768</v>
-      </c>
-      <c r="G5" s="8">
-        <v>33385</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-85596</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>151</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44709</v>
-      </c>
-      <c r="B6" s="8">
-        <v>31331</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44810</v>
-      </c>
-      <c r="G6" s="8">
-        <v>30000</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-54265</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>154</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44714</v>
-      </c>
-      <c r="B7" s="16">
-        <v>14043</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44863</v>
-      </c>
-      <c r="G7" s="16">
-        <v>36233</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-40222</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>149</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44744</v>
-      </c>
-      <c r="B8" s="16">
-        <v>13999</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="18"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-26223</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>119</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="52">
-        <v>44743</v>
-      </c>
-      <c r="B9" s="13">
-        <v>13147</v>
-      </c>
+      <c r="A9" s="52"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>-13076</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>120</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="52">
-        <v>44772</v>
-      </c>
-      <c r="B10" s="13">
-        <v>26731</v>
-      </c>
+      <c r="A10" s="52"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1282,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1314,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1618,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1634,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1651,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44863</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1676,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>113273</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1684,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>99618</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1707,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>13655</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G14"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44887</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,35 +1142,43 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="7">
+        <v>44914</v>
+      </c>
+      <c r="B5" s="8">
+        <v>28890</v>
+      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>28890</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44928</v>
+      </c>
+      <c r="B6" s="8">
+        <v>17575</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1190,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1198,11 +1206,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1214,11 +1222,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,11 +1238,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1246,11 +1254,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1262,11 +1270,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1278,11 +1286,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1294,11 +1302,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1310,11 +1318,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1326,11 +1334,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1342,11 +1350,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1358,11 +1366,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1374,11 +1382,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1390,11 +1398,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1406,11 +1414,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1422,11 +1430,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1438,11 +1446,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1454,11 +1462,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1470,11 +1478,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1486,11 +1494,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,11 +1510,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1518,11 +1526,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1534,11 +1542,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1550,11 +1558,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1566,11 +1574,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1582,11 +1590,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1598,11 +1606,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1623,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1640,7 +1648,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1671,7 +1679,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>0</v>
+        <v>46465</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,15 +1150,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44977</v>
+      </c>
+      <c r="G5" s="8">
+        <v>26440</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>28890</v>
+        <v>2450</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1174,11 +1178,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1190,11 +1194,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,11 +1210,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1222,11 +1226,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1238,11 +1242,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1254,11 +1258,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1270,11 +1274,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1286,11 +1290,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1302,11 +1306,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1318,11 +1322,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1334,11 +1338,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1350,11 +1354,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1366,11 +1370,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1382,11 +1386,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1398,11 +1402,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1414,11 +1418,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1430,11 +1434,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1446,11 +1450,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1462,11 +1466,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1478,11 +1482,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1494,11 +1498,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1510,11 +1514,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1526,11 +1530,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1542,11 +1546,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1558,11 +1562,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1574,11 +1578,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1590,11 +1594,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1606,11 +1610,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1627,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>44977</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1656,7 +1660,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>26440</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1679,7 +1683,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>46465</v>
+        <v>20025</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1142,47 +1142,35 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44914</v>
-      </c>
-      <c r="B5" s="8">
-        <v>28890</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44977</v>
-      </c>
-      <c r="G5" s="8">
-        <v>26440</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>2450</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>63</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44928</v>
-      </c>
-      <c r="B6" s="8">
-        <v>17575</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>49</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1194,11 +1182,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1210,11 +1198,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1226,11 +1214,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1242,11 +1230,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1258,11 +1246,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1274,11 +1262,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1290,11 +1278,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1306,11 +1294,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1322,11 +1310,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1338,11 +1326,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,11 +1342,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1370,11 +1358,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1386,11 +1374,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1402,11 +1390,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1418,11 +1406,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1434,11 +1422,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1450,11 +1438,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1466,11 +1454,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1482,11 +1470,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1498,11 +1486,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1514,11 +1502,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1530,11 +1518,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1546,11 +1534,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1562,11 +1550,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1578,11 +1566,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1594,11 +1582,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1610,11 +1598,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1615,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44977</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1652,7 +1640,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>46465</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1660,7 +1648,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>26440</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1683,7 +1671,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>20025</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/N.K DELHI.xlsx
+++ b/IMPORTANT/N.K DELHI.xlsx
@@ -1154,7 +1154,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1394,7 +1394,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1554,7 +1554,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45219</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
